--- a/docs/mau_nhap.xlsx
+++ b/docs/mau_nhap.xlsx
@@ -1,37 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CNPM\Library-Management-System\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8505BB-8B50-45AD-972C-546ECCED6ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nhập sách" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Nhập sách" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Thể loại</t>
+  </si>
+  <si>
+    <t>Tác giả</t>
+  </si>
+  <si>
+    <t>Năm XB</t>
+  </si>
+  <si>
+    <t>NXB</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Phiên bản</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Đắc Nhân Tâm</t>
+  </si>
+  <si>
+    <t>Tâm lý</t>
+  </si>
+  <si>
+    <t>Dale Carnegie</t>
+  </si>
+  <si>
+    <t>NXB Trẻ</t>
+  </si>
+  <si>
+    <t>Tiếng Việt</t>
+  </si>
+  <si>
+    <t>978-604-1-12345-6</t>
+  </si>
+  <si>
+    <t>Tái bản lần 5</t>
+  </si>
+  <si>
+    <t>Sách về nghệ thuật đối nhân xử thế</t>
+  </si>
+  <si>
+    <t>Clean Code</t>
+  </si>
+  <si>
+    <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>Robert C. Martin</t>
+  </si>
+  <si>
+    <t>Prentice Hall</t>
+  </si>
+  <si>
+    <t>Tiếng Anh</t>
+  </si>
+  <si>
+    <t>978-0-13-235088-4</t>
+  </si>
+  <si>
+    <t>First Edition</t>
+  </si>
+  <si>
+    <t>Sách về lập trình sạch</t>
+  </si>
+  <si>
+    <t>Nhà Giả Kim</t>
+  </si>
+  <si>
+    <t>Văn học</t>
+  </si>
+  <si>
+    <t>Paulo Coelho</t>
+  </si>
+  <si>
+    <t>NXB Văn Học</t>
+  </si>
+  <si>
+    <t>NXB Thế Giới</t>
+  </si>
+  <si>
+    <t>Tư Duy Nhanh Và Chậm</t>
+  </si>
+  <si>
+    <t>Daniel Kahneman</t>
+  </si>
+  <si>
+    <t>978-604-77-4010-2</t>
+  </si>
+  <si>
+    <t>Tái bản lần 2</t>
+  </si>
+  <si>
+    <t>Phân tích 2 hệ thống tư duy của con người và các bias trong quyết định.</t>
+  </si>
+  <si>
+    <t>Lập Trình Viên Săn Việc</t>
+  </si>
+  <si>
+    <t>Phạm Huy Hoàng</t>
+  </si>
+  <si>
+    <t>978-604-1-23456-7</t>
+  </si>
+  <si>
+    <t>Chia sẻ kinh nghiệm xây dựng sự nghiệp IT, portfolio và phỏng vấn.</t>
+  </si>
+  <si>
+    <t>The Phoenix Project</t>
+  </si>
+  <si>
+    <t>Gene Kim</t>
+  </si>
+  <si>
+    <t>IT Revolution Press</t>
+  </si>
+  <si>
+    <t>978-1-940375-43-0</t>
+  </si>
+  <si>
+    <t>Second Edition</t>
+  </si>
+  <si>
+    <t>Tiểu thuyết về DevOps, vận hành hệ thống và tối ưu quy trình IT.</t>
+  </si>
+  <si>
+    <t>An Ninh Mạng Căn Bản</t>
+  </si>
+  <si>
+    <t>An ninh mạng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>NXB Thông Tin &amp; TT</t>
+  </si>
+  <si>
+    <t>978-604-80-9876-5</t>
+  </si>
+  <si>
+    <t>Tái bản lần 1</t>
+  </si>
+  <si>
+    <t>Giới thiệu tổng quan các khái niệm mạng máy tính và bảo mật cơ bản.</t>
+  </si>
+  <si>
+    <t>Deep Work</t>
+  </si>
+  <si>
+    <t>Cal Newport</t>
+  </si>
+  <si>
+    <t>Grand Central</t>
+  </si>
+  <si>
+    <t>978-1-4555-8668-3</t>
+  </si>
+  <si>
+    <t>Revised Edition</t>
+  </si>
+  <si>
+    <t>Bàn về cách tập trung sâu để đạt hiệu suất cao trong học tập, công việc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm lý </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công nghệ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kỹ năng </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +254,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,229 +584,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="36" customWidth="1" min="11" max="11"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tên sách</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Thể loại</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tác giả</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Năm XB</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NXB</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Số lượng</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ngôn ngữ</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ISBN</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Phiên bản</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mô tả</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Đắc Nhân Tâm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tâm lý</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dale Carnegie</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
         <v>2023</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NXB Trẻ</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>80000</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Tiếng Việt</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>978-604-1-12345-6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Tái bản lần 5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sách về nghệ thuật đối nhân xử thế</t>
-        </is>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Clean Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Công nghệ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Robert C. Martin</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Prentice Hall</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>350000</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tiếng Anh</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>978-0-13-235088-4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>First Edition</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sách về lập trình sạch</t>
-        </is>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nhà Giả Kim</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Văn học</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Paulo Coelho</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <v>2021</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NXB Văn Học</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>95000</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tiếng Việt</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>180000</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>320000</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>210000</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>190000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
